--- a/PhanChia.xlsx
+++ b/PhanChia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuyGiang\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuyGiang\Documents\GitHub\QuanLyHS_GV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Xây dựng phần mềm quản lý học sinh, giáo viên của trường THPT</t>
   </si>
@@ -95,24 +95,12 @@
     <t>2.12</t>
   </si>
   <si>
-    <t>Xây dựng module hướng dẫn sử dụng phần mềm (menu Help, F1) chi tiết đến từng chức năng</t>
-  </si>
-  <si>
     <t>2.13</t>
   </si>
   <si>
-    <t>Xây dựng tài liệu hướng dẫn cài đặt, vận hành</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
     <t>Ghép nối các module để nhận được phần mềm hoàn chỉnh</t>
   </si>
   <si>
-    <t>2.15</t>
-  </si>
-  <si>
     <t>Chạy kiểm thử phần mềm kết quả</t>
   </si>
   <si>
@@ -147,6 +135,9 @@
   </si>
   <si>
     <t>Đức Hùng</t>
+  </si>
+  <si>
+    <t>2.6</t>
   </si>
 </sst>
 </file>
@@ -513,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,22 +520,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -569,7 +560,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -583,7 +574,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -597,7 +588,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -611,7 +602,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -625,21 +616,21 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -653,7 +644,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -667,7 +658,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -681,7 +672,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -695,7 +686,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -709,65 +700,37 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PhanChia.xlsx
+++ b/PhanChia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Xây dựng phần mềm quản lý học sinh, giáo viên của trường THPT</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sơn </t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +619,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -644,7 +647,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -658,7 +661,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4"/>
     </row>

--- a/PhanChia.xlsx
+++ b/PhanChia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Xây dựng phần mềm quản lý học sinh, giáo viên của trường THPT</t>
   </si>
@@ -44,60 +44,21 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>Xây dựng module thêm học sinh mới</t>
-  </si>
-  <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>Xây dựng module sửa thông tin học sinh</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>Xây dựng module xóa thông tin học sinh</t>
-  </si>
-  <si>
-    <t>Xây dựng module tìm kiếm học sinh</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
-    <t>Xây dựng module thêm giáo viên mới</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>Xây dựng module sửa thông tin giáo viên</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>Xây dựng module xóa thông tin giáo viên</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>Xây dựng module tìm kiếm giáo viên</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
     <t>Xây dựng module quản lý thông tin giảng dạy (thêm, sửa, xóa, tìm kiếm)</t>
   </si>
   <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
     <t>Ghép nối các module để nhận được phần mềm hoàn chỉnh</t>
   </si>
   <si>
@@ -125,9 +86,6 @@
     <t>Thời gian thực hiện</t>
   </si>
   <si>
-    <t>Duy</t>
-  </si>
-  <si>
     <t>Hoàng</t>
   </si>
   <si>
@@ -140,7 +98,16 @@
     <t>2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Sơn </t>
+    <t>Xây dựng module thêm, sửa, xóa, tìm kiếm học sinh</t>
+  </si>
+  <si>
+    <t>Xây dựng module thêm, sửa, xóa, tìm kiếm giáo viên</t>
+  </si>
+  <si>
+    <t>Xây dựng module thêm, sửa, xóa, tìm kiếm lớp học</t>
+  </si>
+  <si>
+    <t>Sơn</t>
   </si>
 </sst>
 </file>
@@ -507,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,22 +490,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,7 +530,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -577,7 +544,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -587,153 +554,83 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
